--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1243.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1243.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.51293502692678</v>
+        <v>1.209839224815369</v>
       </c>
       <c r="B1">
-        <v>3.457983428438908</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.725767588165698</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.167038452598852</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9713013290398489</v>
+        <v>1.201840043067932</v>
       </c>
     </row>
   </sheetData>
